--- a/medicine/Enfance/Pierre_Pelot/Pierre_Pelot.xlsx
+++ b/medicine/Enfance/Pierre_Pelot/Pierre_Pelot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Pelot[1], de son vrai nom Pierre Grosdemange, né le 13 novembre 1945 à Saint-Maurice-sur-Moselle dans les Vosges, est un écrivain français. Il est extrêmement prolifique, on lui attribue près de 200 titres. Il écrit également sous les pseudonymes de Pierre Suragne (l'utilisation d'un pseudonyme était imposée par le Fleuve noir de 1972 à 1980) et Pierre Carbonari (seulement pour quelques nouvelles).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Pelot, de son vrai nom Pierre Grosdemange, né le 13 novembre 1945 à Saint-Maurice-sur-Moselle dans les Vosges, est un écrivain français. Il est extrêmement prolifique, on lui attribue près de 200 titres. Il écrit également sous les pseudonymes de Pierre Suragne (l'utilisation d'un pseudonyme était imposée par le Fleuve noir de 1972 à 1980) et Pierre Carbonari (seulement pour quelques nouvelles).
 </t>
         </is>
       </c>
@@ -513,20 +525,95 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Une œuvre très diverse et construite pas à pas
-L’œuvre immense de Pierre Pelot, érigée jour après jour, depuis cinq décennies, a accédé aujourd'hui à une reconnaissance générale et légitime. Il ne faudrait donc pas la réduire à l’écriture de romans de science-fiction, ou relevant du fantastique, à des romans noirs et plus récemment, à celle de romans de littérature générale et – avec la collaboration scientifique d'Yves Coppens – à des romans situés dans la Préhistoire (Le Rêve de Lucy, Sous le Vent du monde…).
+          <t>Une œuvre très diverse et construite pas à pas</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’œuvre immense de Pierre Pelot, érigée jour après jour, depuis cinq décennies, a accédé aujourd'hui à une reconnaissance générale et légitime. Il ne faudrait donc pas la réduire à l’écriture de romans de science-fiction, ou relevant du fantastique, à des romans noirs et plus récemment, à celle de romans de littérature générale et – avec la collaboration scientifique d'Yves Coppens – à des romans situés dans la Préhistoire (Le Rêve de Lucy, Sous le Vent du monde…).
 On lui doit aussi des pièces de théâtre, des contes, des pastiches et des parodies de western ou d’heroic-fantasy, des chroniques, des nouvelles, des feuilletons et des adaptations pour la radio ou la télévision. Le champ de l’écriture s’est encore étendu au scénario de film, de bande dessinée, de téléfilm et à la novélisation.
 Sans cesser d’être un « raconteur d’histoires », un écrivain « populaire », il est devenu peu à peu un authentique écrivain. La perception de son œuvre a souvent été schématique et restrictive, chaque décennie imposant une image différente.
 Les années 1960 sont celles du western et de la série Dylan Stark.
 Lors de la décennie suivante, Pelot commence à exploiter surtout les trois domaines de la science-fiction, du fantastique et du roman de terroir « vosgien » (sans jamais tomber dans le "régionalisme"). L’écriture de romans noirs, de cycles et séries de science-fiction masque le passage dans la littérature générale au cours des années 1980. La décennie suivante est surtout marquée par la forte série de « paléofiction » écrite avec le concours d’Yves Coppens. Il faut attendre la première décennie du XXIe siècle et la parution du roman C’est ainsi que les hommes vivent pour que l’image de l’écrivain s’impose à tous. Plusieurs romans littéraires parus ensuite confirment les qualités du styliste et du créateur d’un monde original peuplé de personnages forts (en particulier certains personnages féminins).
-De la bande dessinée aux romans-westerns et à la série "Dylan Stark"
-Après une brève orientation vers l’électricité et une courte expérience dans un atelier de mécanique générale, Pelot veut échapper au sort commun. De 1960 à 1963, il apprend le dessin par correspondance, peint des toiles et se lance dans la bande dessinée, ce qui lui vaudra son premier article de presse en 1963 dans L'Est républicain à propos de sa BD mettant en scène un héros du Far West : Bob Hart[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De la bande dessinée aux romans-westerns et à la série "Dylan Stark"</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une brève orientation vers l’électricité et une courte expérience dans un atelier de mécanique générale, Pelot veut échapper au sort commun. De 1960 à 1963, il apprend le dessin par correspondance, peint des toiles et se lance dans la bande dessinée, ce qui lui vaudra son premier article de presse en 1963 dans L'Est républicain à propos de sa BD mettant en scène un héros du Far West : Bob Hart.
 Parce qu'il a envoyé ses quatre albums de 44 planches réalisées, coloriées (et toujours inédites) à Hergé, il reçoit en décembre 1963 la réponse du père de Tintin qui juge ses textes "excellents, drôles, originaux, percutants, souvent d'une allègre violence". En revanche, les dessins sont jugés plus sévèrement. Cette lettre confirme chez Pelot un désir d'écrire déjà fortement présent.
 Fort de cette première expérience, nourri de cinéma et d’illustrés, ayant appris énormément sur l'histoire des États-Unis, il se lance dans une carrière littéraire en adoptant son genre de prédilection : le western. Son premier roman, La Piste du Dakota, paru au début de l'année 1966 sous la signature de Pierre Pelot, se déroule dans les États-Unis du lendemain de la guerre de Sécession. Il paraît dans la collection Marabout Junior qui publie également les aventures de Bob Morane (d'Henri Vernes). Sept  autres westerns suivent, six romans et un recueil de nouvelles.
 En 1967, Pierre Pelot crée le personnage de Dylan Stark, un métis franco-indien né dans le sud des États-Unis. Le premier roman de la série, Quatre Hommes pour l'Enfer, se déroule pendant la guerre de Sécession, à laquelle le personnage participe du côté sudiste, à contrecœur. Cet antihéros, inséré dans un cadre géographique et historique plausible, évolue de 1865 à 1867 dans les années de l’après-guerre et d’une paix précaire. Ce premier volume de la série paraît en 1967 dans la collection Pocket Marabout qui en publiera treize autres. Pelot reçoit cette même année le Prix des Treize pour La Couleur de Dieu (tome 2 du cycle) et se marie le 22 décembre.
 Son fils Pierre-Dylan naît en 1969. Il se fera connaître sous le pseudonyme de Dylan Pelot avant de disparaître brutalement à l'âge de 43 ans. C'est pour lui qu'il avait écrit en 1977 Les Aventures de Victor Piquelune publiées aux éditions de l'Amitié.
-Les années 1970 et l'ouverture à de nouveaux genres
-Après l’arrêt brutal de la parution de la série Dylan Stark, Pelot est sans ressources et doit trouver d’autres sources d’inspiration et d’autres éditeurs. Il publie d’autres romans « américains » dans les collections pour la jeunesse : La Drave (1970), L’Unique rebelle (Prix Jeunesse, 1971). Il cache Dylan Stark sous le pseudonyme de "Dan Starken" dans Sierra brûlante (1971, Prix européen de Littérature jeunesse en 1976) et adapte sa 4e bande dessinée inédite (la plus élaborée), pour le roman homonyme La Guerre du Castor (Spirale, G.P., 1971).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les années 1970 et l'ouverture à de nouveaux genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l’arrêt brutal de la parution de la série Dylan Stark, Pelot est sans ressources et doit trouver d’autres sources d’inspiration et d’autres éditeurs. Il publie d’autres romans « américains » dans les collections pour la jeunesse : La Drave (1970), L’Unique rebelle (Prix Jeunesse, 1971). Il cache Dylan Stark sous le pseudonyme de "Dan Starken" dans Sierra brûlante (1971, Prix européen de Littérature jeunesse en 1976) et adapte sa 4e bande dessinée inédite (la plus élaborée), pour le roman homonyme La Guerre du Castor (Spirale, G.P., 1971).
 L’année 1972 est cruciale puisque Pierre Pelot  publie en même temps dans trois domaines littéraires : la science-fiction, le fantastique et le roman social contemporain ayant les Vosges pour cadre (Les Étoiles ensevelies, Aiglon d'or au Festival de Nice)
 À première vue, l'inspiration de Pierre Pelot se démarque de celle d'autres romanciers pour la jeunesse par le fait que ses romans se terminent souvent mal et que ses personnages ne sont pas des surhommes (contrairement à Bob Morane, par exemple). Plus profondément, Pierre Pelot introduit dans ces collections des personnages et des thèmes jusqu’alors rarement traités.
 Ainsi dans les collections "Grand Angle" (chez G.P.) et "Les Chemins de l'Amitié" (aux Éditions de l'Amitié-G.T. Rageot), il évoque la fragilité de l'amitié parfois trahie (Le Pantin immobile), la solitude de la vieillesse (Le Cœur sous la cendre, Grand Prix Européen de Littérature jeunesse, Province de Trente, 1977), la difficulté de la réinsertion sociale (Le Pain perdu), l'intolérance envers la différence et la marginalité (Fou comme l’oiseau), l'hospitalité trahie (Le Renard dans la maison, Prix Jean Macé, 1977). Le Ciel fracassé, paru en 1975, met en scène un déserteur à une époque où le service militaire était encore obligatoire en France. Je suis la mauvaise  herbe mettait déjà en scène un marginal, objecteur de conscience.
@@ -536,52 +623,159 @@
 Deux rééditions capitales ont revivifié des ouvrages importants de science-fiction écrits par Pierre Pelot. En 2005, Denoël, sous le titre générique Delirium Circus, réédite le roman éponyme et les trois récits Transit, Mourir au hasard et La Foudre au ralenti.
 En 2008, chez Bragelonne, Orages mécaniques réunit  Kid Jésus, Le Sourire des crabes et Mais si les papillons trichent, avec une postface éclairante et bien informée de Claude Ecken.
 Ces deux rééditions majeures ont constitué une invitation à une lecture réactualisée de la science-fiction pelotienne. Ce que font les jeunes universitaires Simon Bréan ou Pierre-Gilles Pélissier, le premier revisitant aussi bien  les romans S-F du Fleuve noir que les titres majeurs des années 1970-80, le second examinant « la décennie des dystopies, utopies et contre-utopies de Pierre Pelot » qui va de L’Enfant qui marchait sur le ciel (1972) à Nos armes sont de miel (1982).
-Les années 1980 et 1990
-En plus d'ouvrages forts qui mettent en évidence les pièges d'une société manipulée et aliénée, comme La Guerre Olympique, Canyon Street, Les Barreaux de l'Eden ou Les Pieds dans la tête, Pelot livre des récits noirs et vigoureux qui distillent le suspens et le frisson, tels  La Nuit sur terre ou La Forêt muette. L'Été en pente douce, en dépit d'un titre génial ensuite copié partout, est d'abord discrètement publié chez Kesselring. Il ne connaîtra un succès mérité qu'après son adaptation cinématographique par Gérard Krawczyk. La décennie 1980 est surtout consacrée au roman noir et aux séries de science-fiction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les années 1980 et 1990</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus d'ouvrages forts qui mettent en évidence les pièges d'une société manipulée et aliénée, comme La Guerre Olympique, Canyon Street, Les Barreaux de l'Eden ou Les Pieds dans la tête, Pelot livre des récits noirs et vigoureux qui distillent le suspens et le frisson, tels  La Nuit sur terre ou La Forêt muette. L'Été en pente douce, en dépit d'un titre génial ensuite copié partout, est d'abord discrètement publié chez Kesselring. Il ne connaîtra un succès mérité qu'après son adaptation cinématographique par Gérard Krawczyk. La décennie 1980 est surtout consacrée au roman noir et aux séries de science-fiction.
 Pierre Pelot consacre ensuite du temps à des scénarios télévisuels, à la peinture, au théâtre, pour des pièces inédites jouées en 1991 et 1993. Le rythme des publications s'en ressent et se ralentit.
 Le fait le plus marquant de la dernière décennie du siècle est la longue rédaction très documentée et la publication des cinq tomes du cycle de "paléofiction" Sous le vent du monde, rédigé avec la collaboration scientifique de Yves Coppens. Pelot domine à ce point son sujet qu'il le prolonge dans les deux tomes du cycle Le livre de Ahorn, deux sortes de romans  policiers préhistoriques
-L'écrivain Pelot au XXIe siècle
-En 2002, grâce à son ami Philippe Vandooren, son premier éditeur pour Marabout, devenu directeur éditorial chez Dupuis, Pelot renoue avec la bande dessinée et devient le scénariste de la trilogie de science-fiction H.A.N.D., dessinée par Emmanuel Vegliona et publiée dans la collection "Répérages", chez Dupuis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'écrivain Pelot au XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, grâce à son ami Philippe Vandooren, son premier éditeur pour Marabout, devenu directeur éditorial chez Dupuis, Pelot renoue avec la bande dessinée et devient le scénariste de la trilogie de science-fiction H.A.N.D., dessinée par Emmanuel Vegliona et publiée dans la collection "Répérages", chez Dupuis.
 Pelot n'a pas attendu le nouveau siècle pour écrire des romans de littérature générale. Redécouvrant le plaisir de l'écriture manuelle, il est déjà l'auteur de Elle qui ne sait pas dire je et Si loin de Caïn, mais c'est seulement au début des années 2000 qu'on s'aperçoit qu'il est davantage qu'un romancier populaire.
 En 2003, il publie un roman historique, C'est ainsi que les hommes vivent, Prix Erckmann-Chatrian, Prix de la Feuille d'or-France bleu Sud Lorraine, qui traite de sa région (les Vosges) au XVIIe siècle. Les critiques sont élogieuses. Alors qu'il a quitté les éditions Denoël où il avait publié en 1993 le très beau roman Ce soir, les souris sont bleues (à redécouvrir) pour les éditions Héloïse d'Ormesson, Pelot publie en 2005 un roman vosgien où se cachent des éléments autobiographiques : Méchamment dimanche (Prix Marcel-Pagnol). La part autobiographique est encore plus forte dans La Montagne des bœufs sauvages, publié par Hoëbeke en 2010.
 En 2006, il reçoit le prix Amerigo Vespucci lors du 17e Festival international de géographie de Saint-Dié-des-Vosges pour son roman L'Ombre des voyageuses. Héloïse d'Ormesson publie encore Les Normales saisonnières en 2007 et Maria en 2011.
 En 2012, les éditions Omnibus regroupent dans un grand volume de 1247 pages les 5 romans épiques de la saga de l'Homme (romans déjà réédités séparément chez Folio), sous le titre générique Sous le vent du monde. Deux ans plus tard, en 2014, Bragelonne publie l'intégrale numérique des cinq tomes de l'épopée préhistorique.
 Des pièces de théâtre sont devenues des romans dont le style a été très travaillé : Les Caïmans sont  des gens comme les autres (Denoël, 1996), L'Ange étrange et Marie-McDo (Librairie Arthème Fayard, 2009), Givre noir (éd. La Branche coll. « Vendredi 13 », 2012) et La Ville où les morts dansent toute leur vie (Librairie Arthème Fayard, 2012).
-En avril 2018, l'écrivain annonce sur sa page Facebook que son roman à paraître, Braves gens du purgatoire, sera le dernier. Il invoque notamment son écœurement du monde de l'édition[3]. Il continue cependant à publier un livre par an, tout en se livrant à la peinture[4].
+En avril 2018, l'écrivain annonce sur sa page Facebook que son roman à paraître, Braves gens du purgatoire, sera le dernier. Il invoque notamment son écœurement du monde de l'édition. Il continue cependant à publier un livre par an, tout en se livrant à la peinture.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pierre_Pelot</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Œuvres</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe une catégorie consacrée à ce sujet : Roman de Pierre Pelot.
-Romans de science-fiction
-Une autre terre Coll. "Jeunesse Poche-Anticipation n° 18", Ėd. de l'Amitié, Ill. Claude Auclair, 1972.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans de science-fiction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une autre terre Coll. "Jeunesse Poche-Anticipation n° 18", Ėd. de l'Amitié, Ill. Claude Auclair, 1972.
 L'Île aux enragés Coll. "Jeunesse Poche-Anticipation n° 28", Éd. de l'Amitié, Ill. Claude Auclair, 1973. (Suite de Une autre terre)
 Les Légendes de terre Coll. "Olympic"", Ėditions G.P., Ill. Jean Retailleau, 1973.
 Le Pays des rivières sans nom Coll. Spirale, Ėditions G.P., Ill. Jacques Pecnard, 1973.
@@ -604,16 +798,118 @@
 La Foudre au ralenti J'ai Lu n° 1564, Ill. Boris, 1983.
 Fou dans la tête de Nazi Jones, Belladone et compagnie, Coll. Anticipation, Fleuve noir, 1986.
 La Nuit du Sagittaire Coll. "Science-Fiction n° 5338", Presses-Pocket, Ill.Wojtek Siudmak, 1990.
-Messager des tempêtes lointaines Coll. Présence du futur n° 566, Denoël, Ill. Caza, 1996.
-Romans fantastiques
-Blues pour Julie Coll. "Espaces Mondes"", éd. Ponte Mirone, 1980.
+Messager des tempêtes lointaines Coll. Présence du futur n° 566, Denoël, Ill. Caza, 1996.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans fantastiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Blues pour Julie Coll. "Espaces Mondes"", éd. Ponte Mirone, 1980.
 Une jeune fille au sourire fragile Coll. "Science-Fiction n° 6", éd. Patrick Siry, 1988.
-La Fille de la Hache-Croix Coll. "Les Fantastiques", Magnard Jeunesse, 1998. Ill.
-Mystère
-Le Chant de l’homme mort, Mathieu Garden, Tome 1, Fleuve noir, 1995
-Les Pirates du Graal, Mathieu Garden, Tome 2, Fleuve Noir, 1998
-Policiers, romans noirs, thrillers...
-La Forêt muette Coll. "Sanguine", Albin Michel, 1982.
+La Fille de la Hache-Croix Coll. "Les Fantastiques", Magnard Jeunesse, 1998. Ill.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mystère</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Chant de l’homme mort, Mathieu Garden, Tome 1, Fleuve noir, 1995
+Les Pirates du Graal, Mathieu Garden, Tome 2, Fleuve Noir, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Policiers, romans noirs, thrillers...</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Forêt muette Coll. "Sanguine", Albin Michel, 1982.
 Pauvres zhéros Coll "Engrenage", Fleuve noir, 1982. (Adaptation et dessins de Baru pour une bande dessinée parue chez Casterman et Payot/Rivages en 2008)
 La Nuit sur terre Coll "Sueurs froides", Denoël, 1983.
 Le Cri du prisonnier Coll "Engrenage", Fleuve noir, 1983.
@@ -629,9 +925,43 @@
 Le Jour de l'enfant tueur, Coll. Points n° 653, Seuil, 1999. (Le Livre de Ahorn-1) (Préhistoire)
 L'Ombre de la louve, Coll. Points n° 718, Seuil, 2000. (Le Livre de Ahorn-2) (Préhistoire)
 Les Chiens qui traversent la nuit "Rivages/Noir", Rivages, 2003.
-Les Jardins d'Éden Gallimard, Série noire, 2021. Réédition, Gallimard, coll. « Folio policier » no 991, 2023
-Romans de littérature générale
-Elle qui ne sait pas dire je Éditions Plon, Ill. Jérôme Lo Monaco, 1987. (Nouvelle édition revue : Éd. Héloïse d'Ormesson. 2014)
+Les Jardins d'Éden Gallimard, Série noire, 2021. Réédition, Gallimard, coll. « Folio policier » no 991, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans de littérature générale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Elle qui ne sait pas dire je Éditions Plon, Ill. Jérôme Lo Monaco, 1987. (Nouvelle édition revue : Éd. Héloïse d'Ormesson. 2014)
 Si loin de Caïn Coll. "Rue Racine", Flammarion, 1988.
 Ce soir, les souris sont bleues Éditions Denoël, Ill. Mark Rothko, 1993.
 Les Caïmans sont des gens comme les autres Éditions Denoël, 1996.
@@ -650,36 +980,217 @@
 Debout dans le tonnerre, Éd. Héloïse d'Ormesson,2017.
 Braves gens du Purgatoire Éd. Héloïse d'Ormesson, 2019.
 Un autre pas dans la rivière Éd. Terres de France - Les Presses de la Cité, 2021
-Se souvenir encore des orages Éd. Terres de France - Les Presses de la Cité, 2022
-Romans adaptés à la télévision et au cinéma
-Les Étoiles ensevelies Coll. "Bibliothèque de l'Amitié", Éd. de l'Amitié-G.T. Rageot, 1972. (Téléfilm de Pierre Cardinal et Michèle Tournier diffusé sur la 1re chaîne française le 26 décembre 1974. Musique de Paco Ibanez)
+Se souvenir encore des orages Éd. Terres de France - Les Presses de la Cité, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans adaptés à la télévision et au cinéma</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les Étoiles ensevelies Coll. "Bibliothèque de l'Amitié", Éd. de l'Amitié-G.T. Rageot, 1972. (Téléfilm de Pierre Cardinal et Michèle Tournier diffusé sur la 1re chaîne française le 26 décembre 1974. Musique de Paco Ibanez)
 Le Pain perdu Coll. "Grand Angle", Éditions G.P., 1974. (Téléfilm de Pierre Cardinal diffusé sur la 1re chaîne française le 30 mars 1977. Musique de Jacques Loussier)
 Le Pantin immobile Coll. "Les Chemins de l'amitié n° 18, Éd. de l'Amitié-G.T. Rageot, 1976. (Téléfilm de Michel Guillet diffusé sur FR3 le 22 mai 1985.)
 Fou comme l'oiseau Coll. "Les Chemins de l'amitié" n° 32, Éd. de l'Amitié-G.T. Rageot, 1980. (Téléfilm de Fabrice Cazeneuve diffusé sur antenne 2 le 22 juin 1983. Musique de Michel Portal).
-L'Été en pente douce Yverdon (Suisse) : Kesselring, 1980. (Film de Gérard Krawczyk, 1987).
-Récits et contes pour enfants
-Les Aventures de Victor Piquelune - Amitié, 1977. - (Ma première amitié) Couv. et ill. d’Arnaud Laval.
+L'Été en pente douce Yverdon (Suisse) : Kesselring, 1980. (Film de Gérard Krawczyk, 1987).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Récits et contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Aventures de Victor Piquelune - Amitié, 1977. - (Ma première amitié) Couv. et ill. d’Arnaud Laval.
 Un Bus capricieux - Amitié, 1981. - (Ma première amitié ; 29) Ill. de Claire Nadaud.
 Vincent, le chien terriblement jaune Illustrations de Dylan Pelot - Pocket, 1995. - (Kid pocket, Les grandes histoires de la vie ; J 151)
 Vincent en hiver Illustrations de Dylan Pelot. - Pocket, 2000. - (Kid pocket, Les grandes histoires de la vie ; J 549)
 Vincent et le canard à trois pattes Illustrations de Dylan Pelot. - Pocket, 2001. - (Kid pocket, Les grandes histoires de la vie ; J 666)
 Vincent et les évadés du Zoo Illustrations de Dylan Pelot. - Pocket, 2002. - (Kid pocket, Les grandes histoires de la vie)
-Vincent au cirque  Illustrations de Dylan Pelot. – Pocket jeunesse, 2003. - (Kid pocket ; 1198)
-Nouvelles
-Sous le pseudonyme de Pierre Carbonari
-Le Grand suicide, Périodique L'Impossible n° 6, décembre 1971.
+Vincent au cirque  Illustrations de Dylan Pelot. – Pocket jeunesse, 2003. - (Kid pocket ; 1198)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Pierre Carbonari</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Grand suicide, Périodique L'Impossible n° 6, décembre 1971.
 L'Homme nostalgique, Périodique L'Impossible" n °7, janvier 1972.
-Le Trait de génie, Périodique L'Impossible n+ 12, juin 1972.
-Sous le pseudonyme de Pierre Suragne
-Le Raconteur, revue de S-F Fiction n° 244, Opta, avril 1974.
+Le Trait de génie, Périodique L'Impossible n+ 12, juin 1972.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Pierre Suragne</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le Raconteur, revue de S-F Fiction n° 244, Opta, avril 1974.
 Numéro sans filet, revue de S-F Fiction, n° 245, Opta, mai 1974.
 Je suis la guerre, revue de S-F Fiction, n° 247, Opta, juillet 1974.
 L'Assassin de Dieu, revue de S-F Fiction, n° 251, Opta, novembre 1974.
 Ici, revue belge de S-F Argon, Opta, avril 1975.
 Danger, ne lisez pas !, Les soleils d'Arcadie, anthologie de Daniel Walter, Opta, mai 1975.
-Sables..., sables..., Dédale-1, anthologie de Henry-Luc Planchat, Marabout, 1975.
-Sélection de nouvelles signées Pierre Pelot
-Pionniers, Univers 06, anthologie de Yves Frémion, J'ai Lu, Opta, 1976.
+Sables..., sables..., Dédale-1, anthologie de Henry-Luc Planchat, Marabout, 1975.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sélection de nouvelles signées Pierre Pelot</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pionniers, Univers 06, anthologie de Yves Frémion, J'ai Lu, Opta, 1976.
 Razzia de printemps, revue S-F Piranha, n° 2, Pierre de Lune, 1977.
 Il y eut, ce soir-là, un orage, Planète socialiste, anthologie de Michel Jeury, Kesselring, 1977.
 Un amour de vacances (avec le clair de lune, les violons, tout le bordel en somme), Retour à la terre n° 3. anthologie de Jean-Pierre Andrevon, Présence du futur, Denoël, 1977.
@@ -690,46 +1201,306 @@
 L'Amidéal, revue de S-F Fiction n° 292, Opta, juillet-août 1978.
 L'Assassin de Dieu, Recueil de dix nouvelles publié sous la direction de Claude Ecken, Encrage Destination Crépuscule, 1998.
 Le Long Voyage de Soleil-Fleur et Griffue Fantasy : Dix-huit grands récits de merveilleux, anthologie de Henri Loevenbruck &amp; Alain Névant, Fleuve noir, 1998
-Après le déluge, nouvelle uchronique dans l'anthologie d'Alain Grousset, Flammarion, 2008. Divergences 001 (2008)
-Séries et cycles de science-fiction
-Les Hommes sans futur
-Les Mangeurs d'argile Coll. "Science-Fiction n° 5123", Ill. Wojtek Siudmak, Presses-Pocket, 1981 ; réédition chez French Pulp éditions, 2018.
+Après le déluge, nouvelle uchronique dans l'anthologie d'Alain Grousset, Flammarion, 2008. Divergences 001 (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Séries et cycles de science-fiction</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Les Hommes sans futur</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les Mangeurs d'argile Coll. "Science-Fiction n° 5123", Ill. Wojtek Siudmak, Presses-Pocket, 1981 ; réédition chez French Pulp éditions, 2018.
 Saison de rouille Coll. "Science-Fiction n° 5135", Ill. Wojtek Siudmak, Presses-Pocket, 1982 ; réédition chez French Pulp éditions, 2019.
 Soleils hurlants Coll. "Science-Fiction n° 5157", Ill. Wojtek Siudmak, Presses-Pocket, 1983.
 Le Père de feu Coll. "Science-Fiction n° 5173", Ill. Wojtek Siudmak, Presses-Pocket, 1984.
 Le chien courait sur l'autoroute en criant son nom Coll. "Science-Fiction n° 5190", Ill. Wojtek Siudmak, Presses-Pocket, 1984.
-Ce chasseur-là Coll. "Science-Fiction n° 5209", Ill. Wojtek Siudmak, Presses-Pocket, 1985.
-Chromagnon Z
-Paradis zéro Coll. Fleuve Noir Anticipation n° 1355, Fleuve noir, 1984.
+Ce chasseur-là Coll. "Science-Fiction n° 5209", Ill. Wojtek Siudmak, Presses-Pocket, 1985.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Séries et cycles de science-fiction</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Chromagnon Z</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Paradis zéro Coll. Fleuve Noir Anticipation n° 1355, Fleuve noir, 1984.
 Le Bruit des autres Coll. Fleuve Noir Anticipation n° 1369, Fleuve noir, 1985.
 Les Passagers du mirage Coll. Fleuve Noir Anticipation n° 1426, Fleuve noir, 1985.
-Les Conquérants immobiles Coll. Fleuve Noir Anticipation n° 1469, Fleuve noir, 1985.
-La Ballade Tony Burden
-Mémoires d'un épouvantail blessé au combat Coll. Fleuve Noir Anticipation n° 1482, Fleuve noir, 1986.
+Les Conquérants immobiles Coll. Fleuve Noir Anticipation n° 1469, Fleuve noir, 1985.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Séries et cycles de science-fiction</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>La Ballade Tony Burden</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mémoires d'un épouvantail blessé au combat Coll. Fleuve Noir Anticipation n° 1482, Fleuve noir, 1986.
 Observation du virus en temps de paix Coll. Fleuve Noir Anticipation n° 1495, Fleuve noir, 1986.
 Alabama Un Neuf Neuf Six Coll. Fleuve Noir Anticipation n° 1553, Fleuve noir, 1987.
 Sécession bis Coll. Fleuve Noir Anticipation n° 1565, Fleuve noir, 1987.
-Offensive du virus sous le champ de bataille Coll. Fleuve Noir Anticipation n° 1580, Fleuve noir, 1987.
-Les Raconteurs de nulle part
-Le Présent du fou Coll. Fleuve Noir Anticipation n° 1732, Ill. Vatine, Fleuve noir, 1989.
+Offensive du virus sous le champ de bataille Coll. Fleuve Noir Anticipation n° 1580, Fleuve noir, 1987.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Séries et cycles de science-fiction</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Les Raconteurs de nulle part</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Le Présent du fou Coll. Fleuve Noir Anticipation n° 1732, Ill. Vatine, Fleuve noir, 1989.
 Les Forains du bord du gouffre Coll. Fleuve Noir Anticipation n° 1737, Ill. Vatine, Fleuve noir, 1990.
 Le Ciel sous la pierre Coll. Fleuve Noir Anticipation n° 1743, Ill. Vatine, Fleuve noir, 1990.
-Les Faucheurs du temps Coll. Fleuve Noir Anticipation n° 1750, Ill. Vatine, Fleuve noir, 1990.
-Konnar et compagnie
-Le Fils du grand Konnar (d'abord publié en feuilleton dans la revue Fiction (1981) sous le titre Konnar le Barbant) Ill. Vatine,Fleuve noir, 1990)
+Les Faucheurs du temps Coll. Fleuve Noir Anticipation n° 1750, Ill. Vatine, Fleuve noir, 1990.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Séries et cycles de science-fiction</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Konnar et compagnie</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Le Fils du grand Konnar (d'abord publié en feuilleton dans la revue Fiction (1981) sous le titre Konnar le Barbant) Ill. Vatine,Fleuve noir, 1990)
 Sur la piste des Rollmops Ill. Vatine, Fleuve noir, 1991)
 Rollmops Dream Ill. Vatine, Fleuve noir, 1991)
 Gilbert le Barbant - le retour Ill. Vatine, Fleuve noir, 1991)
 Ultimes aventures en territoires fourbes Ill. Vatine, Fleuve noir, 1991)
-Konnar le barbant, La Konnerie : Intégrale Ill. Jean Solé, Bragelonne, 2006. (Réédition intégrale et entièrement révisée des 5 épisodes).
-Scénarios de bande dessinée
-HAND, avec Emmanuel Vegliona, Dupuis, coll. « Repérages », 3 vol., 2002-2005[5].
+Konnar le barbant, La Konnerie : Intégrale Ill. Jean Solé, Bragelonne, 2006. (Réédition intégrale et entièrement révisée des 5 épisodes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Scénarios de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>HAND, avec Emmanuel Vegliona, Dupuis, coll. « Repérages », 3 vol., 2002-2005.
 Homo Sapiens, avec Jacques Malaterre (co-scénario) et Loïc Maltani (dessin), Bamboo, coll. « Angle de vue », 2 vol., 2005-2007.
 Pauvres Zéros, avec Baru, Rivages/Casterman, coll. « Noir », 2008.
-L'Été en pente douce, avec Jean-Christophe Chauzy, AUDIE, coll. « Fluide glacial », 2017.
-Sous le pseudonyme Pierre Suragne
-Récits d'anticipation
-La Septième Saison Coll. Fleuve Noir Anticipation, n° 505, Ill. Ste Croix, Fleuve noir, 1972.
+L'Été en pente douce, avec Jean-Christophe Chauzy, AUDIE, coll. « Fluide glacial », 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme Pierre Suragne</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Récits d'anticipation</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>La Septième Saison Coll. Fleuve Noir Anticipation, n° 505, Ill. Ste Croix, Fleuve noir, 1972.
 Mal Iergo le dernier Coll. Fleuve Noir Anticipation) n° 519, Ill. Ste Croix, Fleuve noir, 1972.
 L'Enfant qui marchait sur le ciel Coll. Fleuve Noir Anticipation, n° 530, Ill. Ste Croix, Fleuve noir, 1972.
 La Nef des dieux Coll. Fleuve Noir Anticipation, n° 549, Ill. Ste Croix, Fleuve noir, 1973.
@@ -742,20 +1513,134 @@
 Vendredi, par exemple… Coll. Fleuve Noir Anticipation, n° 695, Ill. Brantonne, Fleuve noir, 1975.
 La Cité au bout de l'espace Coll. Fleuve Noir Anticipation, n° 797, Fleuve noir, 1977.
 Virgules téléguidées Coll. Fleuve Noir Anticipation, n° 970, Fleuve noir, 1979.
-Dérapages Coll. Fleuve Noir Anticipation, n° 999, Fleuve noir, 1980.
-Récits fantastiques
-La Peau de l'orage Collection Angoisse n° 235, Fleuve noir, Ill. Michel Gourdon, 1973.
+Dérapages Coll. Fleuve Noir Anticipation, n° 999, Fleuve noir, 1980.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme Pierre Suragne</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Récits fantastiques</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>La Peau de l'orage Collection Angoisse n° 235, Fleuve noir, Ill. Michel Gourdon, 1973.
 Duz Collection Angoisse n° 243, Fleuve noir, Ill. Michel Gourdon, 1973.
 Je suis la brume Collection Angoisse n° 251, Fleuve noir, Ill. Michel Gourdon, 1973.
 Suicide Collection "Horizons de l'Au-delà, n° 1", Fleuve noir, Ill. Pierre Golvan, 1974.
 Brouillards Collection "Horizons de l'Au-delà, n° 13", Fleuve noir, 1975.
 Elle était une fois Collection "Horizons de l'Au-delà, n° 25", Fleuve noir, 1976.
-Le Septième Vivant Collection "Horizons de l'Au-delà, n° 27", Fleuve noir, 1976.
-Récits policiers
-Du plomb dans la neige Coll. "Spécial Police n° 1138", Fleuve noir, Ill. Michel Gourdon, 1974.
-Les Grands Méchants Loufs Coll. "Spécial Police n° 1351", Fleuve noir, Ill. Michel Gourdon, 1977.
-Western
-La Piste du Dakota Ill. de couv. Pierre Joubert, Collection Marabout Junior, Éditions Gérard &amp; C°, 1966.
+Le Septième Vivant Collection "Horizons de l'Au-delà, n° 27", Fleuve noir, 1976.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme Pierre Suragne</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Récits policiers</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Du plomb dans la neige Coll. "Spécial Police n° 1138", Fleuve noir, Ill. Michel Gourdon, 1974.
+Les Grands Méchants Loufs Coll. "Spécial Police n° 1351", Fleuve noir, Ill. Michel Gourdon, 1977.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme Pierre Suragne</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Piste du Dakota Ill. de couv. Pierre Joubert, Collection Marabout Junior, Éditions Gérard &amp; C°, 1966.
 Black Panache Ill. de couv. Pierre Joubert, Collection Marabout Junior, Éditions Gérard &amp; C°, 1966.
 Comme se meurt un soleil Ill. de couv. Pierre Joubert, Collection Marabout Junior, Éditions  Gérard &amp; C°, 1966.
 La Longue Chasse Ill. de couv. Pierre Joubert, Collection Marabout Junior, Éditions Gérard &amp; C°, 1966.
@@ -795,46 +1680,117 @@
 Pour un cheval qui savait rire Couv. Nicolas Wintz, Ill. intérieures Claude Auclair, Collection "Les Maîtres de l'aventure", Éditions de l'Amitié, 1982.
 14 volumes sont parus dans la collection "Pocket Marabout". 10 volumes seront réédités dans la collection "L'Ami de poche" chez Casterman, de 1980 à 1982 avec des illustrations de Michel Blanc-Dumont. Deux recueils illustrés en couverture par Michel Blanc-Dumont, Dylan Stark-1 et Dylan Stark-2, regroupant chacun 7 récits, sont publiés par l'éditeur belge Claude Lefrancq en 1997 et 1998.
 Les éditions Le Navire en pleine ville de Saint-Hippolyte-du-Fort rééditent La Couleur de Dieu et Sierra brûlante en 2006 et Quatre hommes pour l'enfer en 2007.
-Avec Yves Coppens
-Le Rêve de Lucy Coll. "La Dérivée", Ill. Tanino Liberatore, Seuil, 1990. Postface de Yves Coppens
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Avec Yves Coppens</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Le Rêve de Lucy Coll. "La Dérivée", Ill. Tanino Liberatore, Seuil, 1990. Postface de Yves Coppens
 Série "Sous le vent du monde" Grand Prix de l'Imaginaire 2001
 Qui regarde la montagne au loin Ill. de couv. Pierre Pelot, Denoël, 1997. Préface de Yves Coppens.
 Le nom perdu du soleil  Ill. de couv. Pierre Pelot, Denoël, 1998. Préface de Yves Coppens.
 Debout dans le ventre blanc du silence  Ill. de couv. Pierre Pelot, Denoël, 1999. Préface de Yves Coppens.
 Avant la fin du ciel  Ill. de couv. Pierre Pelot, Denoël, 2000. Préface de Yves Coppens.
-Ceux qui parlent au bord de la pierre  Ill. de couv. Pierre Pelot, Denoël, 2001. Préface de Yves Coppens.
-Novélisations
-Hanuman : Entrez dans la  Légende du Dieu Singe (d'après le scénario de Fred Fougea et Michel Fesser) Denoël, 1998.
+Ceux qui parlent au bord de la pierre  Ill. de couv. Pierre Pelot, Denoël, 2001. Préface de Yves Coppens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Novélisations</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hanuman : Entrez dans la  Légende du Dieu Singe (d'après le scénario de Fred Fougea et Michel Fesser) Denoël, 1998.
 Le Pacte des loups (d'après le scénario de Stéphane Cabel et le film de Christophe Gans) Rivages, 2001.
 Brocéliande (d'après le scénario et les dialogues de Doug Headline et Benoït Lestang). Rivages, 2003.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pierre_Pelot</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pelot</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>L'Été en pente douce est un film français de Gérard Krawczyk avec Jean-Pierre Bacri, Pauline Lafont et Jacques Villeret, sorti en 1987, d'après le roman éponyme de Pierre Pelot</t>
         </is>
